--- a/Backend/Model Metrics/metrics_rfc_Part2_rrt.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_Part2_rrt.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.8559919436052367</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8619201725997843</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.864406779661017</v>
+        <v>0.2849162011173184</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7945205479452054</v>
+        <v>0.9815724815724816</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8968324016867707</v>
       </c>
     </row>
   </sheetData>
